--- a/biology/Botanique/Rambour_d'hiver/Rambour_d'hiver.xlsx
+++ b/biology/Botanique/Rambour_d'hiver/Rambour_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Rambour d'hiver est un ancien cultivar de pommier domestique retenu pour la conservation de ses fruits. Pierre Le Lectier en fait mention dans son Catalogue des arbres cultivez dans le verger de 1628.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rambour d'hiver du Rhin,
 Rambo,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme d'origine ancienne[Note 1], est connue dans toute l'Europe de l'Ouest : France du nord et de l'est, Belgique, ouest de l'Allemagne.
-Son nom vient du village de Rambures dans le département de la Somme et du Château de Rambures qui lui est associé ainsi que de la famille du même nom[1],[2].
+Son nom vient du village de Rambures dans le département de la Somme et du Château de Rambures qui lui est associé ainsi que de la famille du même nom,.
 Dans le verger du parc du château de Rambures,  des pommiers de cette espèce sont cultivés.
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : pomme de garde.
 Feuillage : feuilles vertes luisantes.
 Calibre : la « Rambour d'hiver » est une pomme assez grosse.
 Forme : aplatie.
-Vitamine C : très bonne concentration (14,8 mg/100 g)[3].
+Vitamine C : très bonne concentration (14,8 mg/100 g).
 Épicarpe : fin, cireux, fond jaune verdâtre lavé de rouge.
 Pédoncule : court.
 Sa chair est d'un blanc jaunâtre, légèrement cassante, assez grossière, tendre et acide avec peu d'arôme.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,12 +638,14 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Très rustique, le pommier Rambour d'hiver résiste à des températures basses pouvant aller jusqu'à - 20 C°. C'est une variété  assez rare et résistante aux maladies[4]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Très rustique, le pommier Rambour d'hiver résiste à des températures basses pouvant aller jusqu'à - 20 C°. C'est une variété  assez rare et résistante aux maladies. 
 Ploïdie : triploïde, variété dite « à mauvais pollen »; elle ne participe donc pas à la pollinisation croisée.
 Floraison : mi-tardive, en avril.
-Pollinisation : le pommier « Rambour d'hiver » n'est pas une variété auto-fertile, il doit être planté à proximité de variétés dont la floraison survient à la même époque comme « Reine des reinettes », « Berlepsch »[5], « James Grieve », « Ontario », « Ingrid Marie », « Belle de Magny » et « Colapuy » pour assurer sa pollinisation.</t>
+Pollinisation : le pommier « Rambour d'hiver » n'est pas une variété auto-fertile, il doit être planté à proximité de variétés dont la floraison survient à la même époque comme « Reine des reinettes », « Berlepsch », « James Grieve », « Ontario », « Ingrid Marie », « Belle de Magny » et « Colapuy » pour assurer sa pollinisation.</t>
         </is>
       </c>
     </row>
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rambour_d%27hiver</t>
+          <t>Rambour_d'hiver</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maturité : en octobre.
 Conservation : sur fruitier seulement jusque janvier; en frigo, jusque fin avril.
